--- a/reverseprimer-v3_34.xlsx
+++ b/reverseprimer-v3_34.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="reverseprimer-v3_34" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>R3169-GAGATCATCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGATCATCGGTCTCGTGGGCTCGG</t>
+    <t>R3169-AGACTCAGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGACTCAGCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>R3170-GAGTTCAACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGTTCAACTGTCTCGTGGGCTCGG</t>
+    <t>R3170-CATCATCCTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATCATCCTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>R3171-GTCACCTAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCACCTAGTGTCTCGTGGGCTCGG</t>
+    <t>R3171-AACATCCTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACATCCTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>R3172-TGGAACTGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGGAACTGGAGTCTCGTGGGCTCGG</t>
+    <t>R3172-GAACAGAGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACAGAGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>R3173-TGACGAGACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGACGAGACTGTCTCGTGGGCTCGG</t>
+    <t>R3173-GTACATGTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTACATGTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>R3174-ACACACGTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACACGTACGTCTCGTGGGCTCGG</t>
+    <t>R3174-TTCTCACAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCTCACAGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>R3175-TACTTCACGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACTTCACGTGTCTCGTGGGCTCGG</t>
+    <t>R3175-AGGTCGACAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGTCGACATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>R3176-TTCCTGTCGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCCTGTCGTGTCTCGTGGGCTCGG</t>
+    <t>R3176-GGTCGTAGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGTCGTAGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>R3177-AGACTCGAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGACTCGAAGGTCTCGTGGGCTCGG</t>
+    <t>R3177-TGACCACAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGACCACAACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>R3178-GCTACGAAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTACGAAGAGTCTCGTGGGCTCGG</t>
+    <t>R3178-CAAGCTGAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAAGCTGAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>R3179-TCCTGAGCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCTGAGCATGTCTCGTGGGCTCGG</t>
+    <t>R3179-GTTCAGTCTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTCAGTCTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>R3180-TCGAGTTCGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCGAGTTCGTGTCTCGTGGGCTCGG</t>
+    <t>R3180-AAGAACACTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGAACACTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>R3181-ATCTTCTCGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCTTCTCGTGTCTCGTGGGCTCGG</t>
+    <t>R3181-ACATCTCAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACATCTCAAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>R3182-GACTGAAGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACTGAAGAAGTCTCGTGGGCTCGG</t>
+    <t>R3182-ACAGCAGAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAGCAGAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>R3183-ACTGAAGGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTGAAGGTAGTCTCGTGGGCTCGG</t>
+    <t>R3183-AACGAGGAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACGAGGAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>R3184-CGAGTTGAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGAGTTGAAGGTCTCGTGGGCTCGG</t>
+    <t>R3184-TCCTTGACAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCTTGACAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>R3185-AACAGATGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACAGATGGAGTCTCGTGGGCTCGG</t>
+    <t>R3185-TGGATCAACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGGATCAACGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>R3186-CCTTCTAGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCTTCTAGGAGTCTCGTGGGCTCGG</t>
+    <t>R3186-TCCACATGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCACATGCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>R3187-TCAACTACCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAACTACCTGTCTCGTGGGCTCGG</t>
+    <t>R3187-GTGTTCGATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGTTCGATGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>R3188-CTAGGAACTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTAGGAACTCGTCTCGTGGGCTCGG</t>
+    <t>R3188-ATGGTGAGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGGTGAGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>R3189-GTGAAGACCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGAAGACCTGTCTCGTGGGCTCGG</t>
+    <t>R3189-GAACCTGCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACCTGCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B10</t>
   </si>
   <si>
-    <t>R3190-AACTCTCACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACTCTCACGGTCTCGTGGGCTCGG</t>
+    <t>R3190-TAGCACGTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGCACGTTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B11</t>
   </si>
   <si>
-    <t>R3191-TACGAACTCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACGAACTCGGTCTCGTGGGCTCGG</t>
+    <t>R3191-TACGAGTCTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACGAGTCTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B12</t>
   </si>
   <si>
-    <t>R3192-CAGAAGTAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGAAGTAGAGTCTCGTGGGCTCGG</t>
+    <t>R3192-GACAGTCATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACAGTCATGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>R3193-AGACACATCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGACACATCGGTCTCGTGGGCTCGG</t>
+    <t>R3193-AACTGGTACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACTGGTACGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>R3194-CCTCTCATCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCTCTCATCAGTCTCGTGGGCTCGG</t>
+    <t>R3194-ACTGATGAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTGATGAGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>R3195-ACACAAGTGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACAAGTGGGTCTCGTGGGCTCGG</t>
+    <t>R3195-CAGTTGCTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGTTGCTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>R3196-GACAGTACTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACAGTACTCGTCTCGTGGGCTCGG</t>
+    <t>R3196-ACACCTCTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACACCTCTACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>R3197-TCCATCTACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCATCTACCGTCTCGTGGGCTCGG</t>
+    <t>R3197-AGCTACACTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCTACACTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>R3198-AACACACAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACACACAAGGTCTCGTGGGCTCGG</t>
+    <t>R3198-GAAGAACAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAAGAACAGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>R3199-GAACTGTTCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACTGTTCCGTCTCGTGGGCTCGG</t>
+    <t>R3199-TTCAGCACTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCAGCACTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>R3200-AGACCACACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGACCACACTGTCTCGTGGGCTCGG</t>
+    <t>R3200-TTGTCCTTCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGTCCTTCCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C9</t>
   </si>
   <si>
-    <t>R3201-TCTACGTAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTACGTAGCGTCTCGTGGGCTCGG</t>
+    <t>R3201-CATGGATGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATGGATGCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>R3202-AGGTGTACCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGTGTACCAGTCTCGTGGGCTCGG</t>
+    <t>R3202-TACACAGCAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACACAGCAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>R3203-TGTAGTCCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTAGTCCATGTCTCGTGGGCTCGG</t>
+    <t>R3203-GAACACTGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACACTGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C12</t>
   </si>
   <si>
-    <t>R3204-GAGAGTTGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGAGTTGCTGTCTCGTGGGCTCGG</t>
+    <t>R3204-CATCAAGCAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATCAAGCACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>R3205-ATCTACCAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCTACCAGTGTCTCGTGGGCTCGG</t>
+    <t>R3205-ACGAACATGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGAACATGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>R3206-TCAAGCTGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAAGCTGACGTCTCGTGGGCTCGG</t>
+    <t>R3206-GGTAGAACTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGTAGAACTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>R3207-TTGAAGTCCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGAAGTCCAGTCTCGTGGGCTCGG</t>
+    <t>R3207-GATGTCTTGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATGTCTTGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
-    <t>R3208-TGAAGCTGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAAGCTGGTGTCTCGTGGGCTCGG</t>
+    <t>R3208-GTTGTTGACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTGTTGACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>R3209-GTAGGATCTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTAGGATCTGGTCTCGTGGGCTCGG</t>
+    <t>R3209-TCAAGCAGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAAGCAGCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
-    <t>R3210-AACCTCTGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACCTCTGTTGTCTCGTGGGCTCGG</t>
+    <t>R3210-GAGACTGTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGACTGTTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
-    <t>R3211-GGTTCACATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGTTCACATCGTCTCGTGGGCTCGG</t>
+    <t>R3211-AAGCAGGATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGCAGGATGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D8</t>
   </si>
   <si>
-    <t>R3212-ACTTGTGACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTTGTGACGGTCTCGTGGGCTCGG</t>
+    <t>R3212-GATGGTTGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATGGTTGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D9</t>
   </si>
   <si>
-    <t>R3213-CCATCAACGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCATCAACGTGTCTCGTGGGCTCGG</t>
+    <t>R3213-GGATGTACGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGATGTACGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D10</t>
   </si>
   <si>
-    <t>R3214-AACCTGAGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACCTGAGAAGTCTCGTGGGCTCGG</t>
+    <t>R3214-TCAAGGTAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAAGGTAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D11</t>
   </si>
   <si>
-    <t>R3215-GTCCATGATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCCATGATCGTCTCGTGGGCTCGG</t>
+    <t>R3215-AGAGACACAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAGACACAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D12</t>
   </si>
   <si>
-    <t>R3216-CTCTCTGCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCTCTGCTTGTCTCGTGGGCTCGG</t>
+    <t>R3216-TAGGTTCGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGGTTCGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>R3217-TAGATCTCAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGATCTCAGGTCTCGTGGGCTCGG</t>
+    <t>R3217-TACAGCAACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACAGCAACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>R3218-TCACTCTTCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCACTCTTCCGTCTCGTGGGCTCGG</t>
+    <t>R3218-GAACGTTGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACGTTGCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>R3219-AAGTGGTAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGTGGTAGAGTCTCGTGGGCTCGG</t>
+    <t>R3219-ATCGAACACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCGAACACGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E4</t>
   </si>
   <si>
-    <t>R3220-CTGTCATCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGTCATCAAGTCTCGTGGGCTCGG</t>
+    <t>R3220-AAGGTACAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGGTACAAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E5</t>
   </si>
   <si>
-    <t>R3221-AGGTGGATGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGTGGATGAGTCTCGTGGGCTCGG</t>
+    <t>R3221-ACTGTGTTCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTGTGTTCGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E6</t>
   </si>
   <si>
-    <t>R3222-TGACACACTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGACACACTGGTCTCGTGGGCTCGG</t>
+    <t>R3222-TGTAGACAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTAGACAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E7</t>
   </si>
   <si>
-    <t>R3223-CAAGTAGATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAAGTAGATGGTCTCGTGGGCTCGG</t>
+    <t>R3223-ACCTACAAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCTACAAGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E8</t>
   </si>
   <si>
-    <t>R3224-ACGTCAAGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGTCAAGTGGTCTCGTGGGCTCGG</t>
+    <t>R3224-ACACAGCTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACACAGCTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E9</t>
   </si>
   <si>
-    <t>R3225-AAGTGACTGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGTGACTGCGTCTCGTGGGCTCGG</t>
+    <t>R3225-TTGAGCAGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGAGCAGGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E10</t>
   </si>
   <si>
-    <t>R3226-AACCAAGCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACCAAGCAAGTCTCGTGGGCTCGG</t>
+    <t>R3226-AGAACATCCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAACATCCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E11</t>
   </si>
   <si>
-    <t>R3227-ATCGTGATGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCGTGATGCGTCTCGTGGGCTCGG</t>
+    <t>R3227-GTGGATGTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGGATGTTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E12</t>
   </si>
   <si>
-    <t>R3228-AGAGACACAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAGACACAAGTCTCGTGGGCTCGG</t>
+    <t>R3228-GCAGATGGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCAGATGGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>R3229-TCTACTACGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTACTACGAGTCTCGTGGGCTCGG</t>
+    <t>R3229-AGAGTCCTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAGTCCTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F2</t>
   </si>
   <si>
-    <t>R3230-AGATCCACAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGATCCACACGTCTCGTGGGCTCGG</t>
+    <t>R3230-CGACTCAGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGACTCAGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F3</t>
   </si>
   <si>
-    <t>R3231-GCTGAGATCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTGAGATCAGTCTCGTGGGCTCGG</t>
+    <t>R3231-CTACACGTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTACACGTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F4</t>
   </si>
   <si>
-    <t>R3232-TGACAAGGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGACAAGGTAGTCTCGTGGGCTCGG</t>
+    <t>R3232-CTTGTGTTGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTTGTGTTGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>R3233-CTACACTGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTACACTGAGGTCTCGTGGGCTCGG</t>
+    <t>R3233-TCTCTGCAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTCTGCAACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>R3234-ACACTGCTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACTGCTAGGTCTCGTGGGCTCGG</t>
+    <t>R3234-TCACACTAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCACACTAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>R3235-ATCCTTCGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCCTTCGACGTCTCGTGGGCTCGG</t>
+    <t>R3235-GAGTGTCGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGTGTCGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F8</t>
   </si>
   <si>
-    <t>R3236-ACCATCTGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCATCTGACGTCTCGTGGGCTCGG</t>
+    <t>R3236-CTGACATCCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGACATCCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F9</t>
   </si>
   <si>
-    <t>R3237-AGACATGACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGACATGACTGTCTCGTGGGCTCGG</t>
+    <t>R3237-AGTGAAGTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTGAAGTTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F10</t>
   </si>
   <si>
-    <t>R3238-CAAGAACTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAAGAACTCTGTCTCGTGGGCTCGG</t>
+    <t>R3238-ACGTCTACTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGTCTACTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F11</t>
   </si>
   <si>
-    <t>R3239-ATGCTACTGC</t>
+    <t>R3239-TGAAGTGCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAAGTGCTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>R3240-TCTACGAGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTACGAGTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>R3241-GTACACATGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTACACATGGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>R3242-TACACTGGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACACTGGTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>R3243-CTCAAGTACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCAAGTACTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>R3244-GTGCTACGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGCTACGTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>R3245-TCACAGTCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCACAGTCATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>R3246-TAGATCCAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGATCCAACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>R3247-ATGCTACTGC</t>
   </si>
   <si>
     <t>CAAGCAGAAGACGGCATACGAGATATGCTACTGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
-    <t>F12</t>
-  </si>
-  <si>
-    <t>R3240-AGTCAGGATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTCAGGATCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>R3241-TGTGTCCAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTGTCCAAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>R3242-TGCTCAAGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGCTCAAGTTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>R3243-TACTGTGAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACTGTGAAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>R3244-CATCAAGCAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATCAAGCACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>R3245-GAACATCCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACATCCTTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G6</t>
-  </si>
-  <si>
-    <t>R3246-TGAGATCGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAGATCGAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>R3247-TCGTCGATGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCGTCGATGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
     <t>G8</t>
   </si>
   <si>
-    <t>R3248-GCATGCTCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCATGCTCTAGTCTCGTGGGCTCGG</t>
+    <t>R3248-CTTCAGTAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTTCAGTAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G9</t>
   </si>
   <si>
-    <t>R3249-TGGACAGTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGGACAGTACGTCTCGTGGGCTCGG</t>
+    <t>R3249-CACTAGTGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCACTAGTGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>R3250-CATGCTTCTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATGCTTCTGGTCTCGTGGGCTCGG</t>
+    <t>R3250-TCGTCTTGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCGTCTTGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>R3251-CAACATGACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAACATGACGGTCTCGTGGGCTCGG</t>
+    <t>R3251-TGCACTACAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGCACTACAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>R3252-GCACTAGGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCACTAGGAAGTCTCGTGGGCTCGG</t>
+    <t>R3252-AAGTCTCTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGTCTCTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>R3253-TCCAGTTGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCAGTTGATGTCTCGTGGGCTCGG</t>
+    <t>R3253-TCCAACTCGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCAACTCGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>R3254-GAGATGAACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGATGAACCGTCTCGTGGGCTCGG</t>
+    <t>R3254-TGACATCTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGACATCTACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>R3255-ATGTGTAGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGTGTAGGTGTCTCGTGGGCTCGG</t>
+    <t>R3255-TTCCTGGAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCCTGGAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>R3256-TGCAGATCGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGCAGATCGAGTCTCGTGGGCTCGG</t>
+    <t>R3256-GTGACGAAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGACGAAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>R3257-GCTCATCAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTCATCAACGTCTCGTGGGCTCGG</t>
+    <t>R3257-TGAACAGTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAACAGTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>R3258-TCCAGTGTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCAGTGTGAGTCTCGTGGGCTCGG</t>
+    <t>R3258-TGTCTCGAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTCTCGAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>R3259-GTCATCCATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCATCCATGGTCTCGTGGGCTCGG</t>
+    <t>R3259-TGCAACGTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGCAACGTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>R3260-TGTCGAGGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTCGAGGTTGTCTCGTGGGCTCGG</t>
+    <t>R3260-TGACGTTGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGACGTTGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>R3261-AAGCACCATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGCACCATCGTCTCGTGGGCTCGG</t>
+    <t>R3261-ATCAAGCTGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCAAGCTGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>R3262-CTGACTAGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGACTAGGAGTCTCGTGGGCTCGG</t>
+    <t>R3262-TCCAGACTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCAGACTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>R3263-AGATGTGTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGATGTGTCTGTCTCGTGGGCTCGG</t>
+    <t>R3263-AACGTAGTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACGTAGTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>R3264-CTTGTGGAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTTGTGGAGAGTCTCGTGGGCTCGG</t>
+    <t>R3264-TAGTACCTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGTACCTCTGTCTCGTGGGCTCGG</t>
   </si>
 </sst>
 </file>
